--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7360AB1D-E436-4EC7-BA8D-4DE9852C05C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47802B63-5F2F-4F91-BD58-B0A07D849ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15756" yWindow="396" windowWidth="12420" windowHeight="9348" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2151,8 +2151,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>232306.65000000002</v>
+        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+        <v>232306</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47802B63-5F2F-4F91-BD58-B0A07D849ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD2A23B-54F2-4081-8E42-3F65EE37662B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,6 +656,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -672,12 +673,14 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -697,6 +700,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -713,12 +717,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -738,32 +744,35 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J38" si="2">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="4">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K38" si="3">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="5">E5+J5</f>
         <v>7514.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D34" si="4">99*1.1</f>
+        <f t="shared" ref="D6:D34" si="7">99*1.1</f>
         <v>108.9</v>
       </c>
       <c r="E6" s="1">
@@ -779,32 +788,35 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7459.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E7" s="1">
@@ -820,32 +832,35 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7405.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E8" s="1">
@@ -861,32 +876,35 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7350.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E9" s="1">
@@ -898,36 +916,39 @@
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G38" si="5">G8+1</f>
+        <f t="shared" ref="G9:G38" si="8">G8+1</f>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7296.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E10" s="1">
@@ -939,36 +960,39 @@
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7241.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E11" s="1">
@@ -980,36 +1004,39 @@
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7187.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E12" s="1">
@@ -1021,37 +1048,39 @@
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f>A3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7142.9500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E13" s="1">
@@ -1063,37 +1092,39 @@
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="6">A4</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7098.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E14" s="1">
@@ -1105,37 +1136,39 @@
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7054.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E15" s="1">
@@ -1147,37 +1180,39 @@
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7009.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E16" s="1">
@@ -1189,37 +1224,39 @@
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6965.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E17" s="1">
@@ -1231,37 +1268,39 @@
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6920.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E18" s="1">
@@ -1273,37 +1312,39 @@
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6876.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E19" s="1">
@@ -1315,37 +1356,39 @@
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6831.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E20" s="1">
@@ -1357,37 +1400,39 @@
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6787.35</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E21" s="1">
@@ -1399,37 +1444,39 @@
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6742.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E22" s="1">
@@ -1441,37 +1488,39 @@
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6698.4500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E23" s="1">
@@ -1483,37 +1532,39 @@
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6654</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E24" s="1">
@@ -1525,37 +1576,39 @@
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6609.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E25" s="1">
@@ -1567,37 +1620,39 @@
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6565.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E26" s="1">
@@ -1609,37 +1664,39 @@
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6520.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E27" s="1">
@@ -1651,37 +1708,39 @@
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6476.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E28" s="1">
@@ -1693,37 +1752,39 @@
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6431.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E29" s="1">
@@ -1735,37 +1796,39 @@
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6387.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E30" s="1">
@@ -1777,37 +1840,39 @@
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6342.85</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E31" s="1">
@@ -1819,37 +1884,39 @@
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6298.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E32" s="1">
@@ -1861,37 +1928,39 @@
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6253.9500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E33" s="1">
@@ -1903,37 +1972,39 @@
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6209.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
       <c r="E34" s="1">
@@ -1945,33 +2016,35 @@
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6165.05</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1987,33 +2060,35 @@
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3180.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -2029,37 +2104,39 @@
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3163.0750000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:D38" si="7">99*1.1/2</f>
+        <f t="shared" ref="D37:D38" si="9">99*1.1/2</f>
         <v>54.45</v>
       </c>
       <c r="E37" s="1">
@@ -2071,37 +2148,39 @@
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3145.8500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54.45</v>
       </c>
       <c r="E38" s="1">
@@ -2113,22 +2192,22 @@
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3128.625</v>
       </c>
     </row>
@@ -2151,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1">
-        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>232306</v>
       </c>
       <c r="D40" s="1"/>

--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD2A23B-54F2-4081-8E42-3F65EE37662B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37915ADE-E78E-4DED-AEC4-D1CCF9506D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <t>Дата оплаты, дни</t>
   </si>
   <si>
-    <t>Просрочка, руб.</t>
+    <t>Просрочка, дней</t>
   </si>
 </sst>
 </file>
@@ -241,15 +241,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,37 +603,37 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -633,40 +641,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>99*1.1</f>
         <v>108.9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <f>C3*D3</f>
         <v>7623</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <f>E3+J3</f>
         <v>7623</v>
       </c>
@@ -676,41 +684,41 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f>A1*1.1</f>
         <v>108.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>7568.55</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F38" si="1">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
         <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <f>E4+J4</f>
         <v>7568.55</v>
       </c>
@@ -720,41 +728,41 @@
         <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f>99*1.1</f>
         <v>108.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>7514.1</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="5">
         <f>G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" ref="J5:J38" si="4">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <f t="shared" ref="K5:K38" si="5">E5+J5</f>
         <v>7514.1</v>
       </c>
@@ -764,41 +772,41 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:D34" si="7">99*1.1</f>
         <v>108.9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>7459.6500000000005</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5">
         <f>G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <f t="shared" si="5"/>
         <v>7459.6500000000005</v>
       </c>
@@ -808,41 +816,41 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>7405.2000000000007</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5">
         <f>G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <f t="shared" si="5"/>
         <v>7405.2000000000007</v>
       </c>
@@ -852,41 +860,41 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>7350.75</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5">
         <f>G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <f t="shared" si="5"/>
         <v>7350.75</v>
       </c>
@@ -896,41 +904,41 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>7296.3</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" ref="G9:G38" si="8">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <f t="shared" si="5"/>
         <v>7296.3</v>
       </c>
@@ -940,41 +948,41 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>7241.85</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <f t="shared" si="5"/>
         <v>7241.85</v>
       </c>
@@ -984,41 +992,41 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>7187.4000000000005</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <f t="shared" si="5"/>
         <v>7187.4000000000005</v>
       </c>
@@ -1028,41 +1036,41 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>7132.9500000000007</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="5"/>
         <v>7142.9500000000007</v>
       </c>
@@ -1072,41 +1080,41 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>7078.5</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <f t="shared" si="5"/>
         <v>7098.5</v>
       </c>
@@ -1116,41 +1124,41 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>7024.05</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="4">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <f t="shared" si="5"/>
         <v>7054.05</v>
       </c>
@@ -1160,41 +1168,41 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>6969.6</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <f t="shared" si="5"/>
         <v>7009.6</v>
       </c>
@@ -1204,41 +1212,41 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>6915.1500000000005</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <f t="shared" si="5"/>
         <v>6965.1500000000005</v>
       </c>
@@ -1248,41 +1256,41 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>6860.7000000000007</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <f t="shared" si="5"/>
         <v>6920.7000000000007</v>
       </c>
@@ -1292,41 +1300,41 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>6806.25</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <f t="shared" si="5"/>
         <v>6876.25</v>
       </c>
@@ -1336,41 +1344,41 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>6751.8</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <f t="shared" si="5"/>
         <v>6831.8</v>
       </c>
@@ -1380,41 +1388,41 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>6697.35</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <f t="shared" si="5"/>
         <v>6787.35</v>
       </c>
@@ -1424,41 +1432,41 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>6642.9000000000005</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <f t="shared" si="5"/>
         <v>6742.9000000000005</v>
       </c>
@@ -1468,41 +1476,41 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>6588.4500000000007</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="4">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <f t="shared" si="5"/>
         <v>6698.4500000000007</v>
       </c>
@@ -1512,41 +1520,41 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>6534</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="4">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <f t="shared" si="5"/>
         <v>6654</v>
       </c>
@@ -1556,41 +1564,41 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>6479.55</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="4">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <f t="shared" si="5"/>
         <v>6609.55</v>
       </c>
@@ -1600,41 +1608,41 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>6425.1</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="4">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <f t="shared" si="5"/>
         <v>6565.1</v>
       </c>
@@ -1644,41 +1652,41 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>6370.6500000000005</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="4">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <f t="shared" si="5"/>
         <v>6520.6500000000005</v>
       </c>
@@ -1688,41 +1696,41 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>6316.2000000000007</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="4">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <f t="shared" si="5"/>
         <v>6476.2000000000007</v>
       </c>
@@ -1732,41 +1740,41 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>6261.75</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <f t="shared" si="5"/>
         <v>6431.75</v>
       </c>
@@ -1776,41 +1784,41 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>6207.3</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="4">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <f t="shared" si="5"/>
         <v>6387.3</v>
       </c>
@@ -1820,41 +1828,41 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>6152.85</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="4">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <f t="shared" si="5"/>
         <v>6342.85</v>
       </c>
@@ -1864,41 +1872,41 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>6098.4000000000005</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="4">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <f t="shared" si="5"/>
         <v>6298.4000000000005</v>
       </c>
@@ -1908,41 +1916,41 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>6043.9500000000007</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="4">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <f t="shared" si="5"/>
         <v>6253.9500000000007</v>
       </c>
@@ -1952,41 +1960,41 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>5989.5</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="4">
+        <v>10</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="4"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="4">
         <f t="shared" si="5"/>
         <v>6209.5</v>
       </c>
@@ -1996,41 +2004,41 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="7"/>
-        <v>108.9</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="4">
+        <f t="shared" si="7"/>
+        <v>108.9</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>5935.05</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="4">
+        <v>10</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="4">
         <f t="shared" si="5"/>
         <v>6165.05</v>
       </c>
@@ -2040,41 +2048,41 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <f>99*1.1/2</f>
         <v>54.45</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>2940.3</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="4">
+        <v>10</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="4">
         <f t="shared" si="5"/>
         <v>3180.3</v>
       </c>
@@ -2084,41 +2092,41 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <f>99*1.1/2</f>
         <v>54.45</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>2913.0750000000003</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="4">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="4">
         <f t="shared" si="5"/>
         <v>3163.0750000000003</v>
       </c>
@@ -2128,41 +2136,41 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <f t="shared" ref="D37:D38" si="9">99*1.1/2</f>
         <v>54.45</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>2885.8500000000004</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="4">
         <f t="shared" si="5"/>
         <v>3145.8500000000004</v>
       </c>
@@ -2172,41 +2180,41 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <f t="shared" si="9"/>
         <v>54.45</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
         <v>2858.625</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" si="1"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="5">
+        <f t="shared" si="1"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="4">
         <f t="shared" si="5"/>
         <v>3128.625</v>
       </c>
@@ -2226,7 +2234,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="1">
@@ -2244,7 +2252,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="1">
@@ -2262,7 +2270,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="1">
@@ -2280,7 +2288,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="1">
@@ -2299,5 +2307,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37915ADE-E78E-4DED-AEC4-D1CCF9506D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D815FE95-7369-4A4D-9E4A-94C734E3D41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +692,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f>A1*1.1</f>
+        <f>$D$3</f>
         <v>108.9</v>
       </c>
       <c r="E4" s="4">
@@ -736,7 +736,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f>99*1.1</f>
+        <f t="shared" ref="D5:D34" si="4">$D$3</f>
         <v>108.9</v>
       </c>
       <c r="E5" s="4">
@@ -759,11 +759,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J38" si="4">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="5">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K38" si="5">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="6">E5+J5</f>
         <v>7514.1</v>
       </c>
     </row>
@@ -776,11 +776,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="7">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D34" si="7">99*1.1</f>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E6" s="4">
@@ -803,11 +803,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7459.6500000000005</v>
       </c>
     </row>
@@ -820,11 +820,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E7" s="4">
@@ -847,11 +847,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7405.2000000000007</v>
       </c>
     </row>
@@ -864,11 +864,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E8" s="4">
@@ -891,11 +891,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7350.75</v>
       </c>
     </row>
@@ -908,11 +908,11 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E9" s="4">
@@ -935,11 +935,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7296.3</v>
       </c>
     </row>
@@ -952,11 +952,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E10" s="4">
@@ -979,11 +979,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7241.85</v>
       </c>
     </row>
@@ -996,11 +996,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E11" s="4">
@@ -1023,11 +1023,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7187.4000000000005</v>
       </c>
     </row>
@@ -1040,11 +1040,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E12" s="4">
@@ -1067,11 +1067,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7142.9500000000007</v>
       </c>
     </row>
@@ -1084,11 +1084,11 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E13" s="4">
@@ -1111,11 +1111,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7098.5</v>
       </c>
     </row>
@@ -1128,11 +1128,11 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E14" s="4">
@@ -1155,11 +1155,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7054.05</v>
       </c>
     </row>
@@ -1172,11 +1172,11 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E15" s="4">
@@ -1199,11 +1199,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7009.6</v>
       </c>
     </row>
@@ -1216,11 +1216,11 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E16" s="4">
@@ -1243,11 +1243,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6965.1500000000005</v>
       </c>
     </row>
@@ -1260,11 +1260,11 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E17" s="4">
@@ -1287,11 +1287,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6920.7000000000007</v>
       </c>
     </row>
@@ -1304,11 +1304,11 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E18" s="4">
@@ -1331,11 +1331,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6876.25</v>
       </c>
     </row>
@@ -1348,11 +1348,11 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E19" s="4">
@@ -1375,11 +1375,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6831.8</v>
       </c>
     </row>
@@ -1392,11 +1392,11 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E20" s="4">
@@ -1419,11 +1419,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6787.35</v>
       </c>
     </row>
@@ -1436,11 +1436,11 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E21" s="4">
@@ -1463,11 +1463,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6742.9000000000005</v>
       </c>
     </row>
@@ -1480,11 +1480,11 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E22" s="4">
@@ -1507,11 +1507,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6698.4500000000007</v>
       </c>
     </row>
@@ -1524,11 +1524,11 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E23" s="4">
@@ -1551,11 +1551,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6654</v>
       </c>
     </row>
@@ -1568,11 +1568,11 @@
         <v>24</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E24" s="4">
@@ -1595,11 +1595,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6609.55</v>
       </c>
     </row>
@@ -1612,11 +1612,11 @@
         <v>25</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E25" s="4">
@@ -1639,11 +1639,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6565.1</v>
       </c>
     </row>
@@ -1656,11 +1656,11 @@
         <v>26</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E26" s="4">
@@ -1683,11 +1683,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6520.6500000000005</v>
       </c>
     </row>
@@ -1700,11 +1700,11 @@
         <v>27</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E27" s="4">
@@ -1727,11 +1727,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6476.2000000000007</v>
       </c>
     </row>
@@ -1744,11 +1744,11 @@
         <v>28</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E28" s="4">
@@ -1771,11 +1771,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6431.75</v>
       </c>
     </row>
@@ -1788,11 +1788,11 @@
         <v>29</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E29" s="4">
@@ -1815,11 +1815,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6387.3</v>
       </c>
     </row>
@@ -1832,11 +1832,11 @@
         <v>30</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E30" s="4">
@@ -1859,11 +1859,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6342.85</v>
       </c>
     </row>
@@ -1876,11 +1876,11 @@
         <v>31</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E31" s="4">
@@ -1903,11 +1903,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6298.4000000000005</v>
       </c>
     </row>
@@ -1920,11 +1920,11 @@
         <v>32</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E32" s="4">
@@ -1947,11 +1947,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6253.9500000000007</v>
       </c>
     </row>
@@ -1964,11 +1964,11 @@
         <v>33</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E33" s="4">
@@ -1991,11 +1991,11 @@
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6209.5</v>
       </c>
     </row>
@@ -2008,11 +2008,11 @@
         <v>34</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>108.9</v>
       </c>
       <c r="E34" s="4">
@@ -2035,11 +2035,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6165.05</v>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
         <v>35</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>99*1.1/2</f>
+        <f>$D$3/2</f>
         <v>54.45</v>
       </c>
       <c r="E35" s="4">
@@ -2079,11 +2079,11 @@
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3180.3</v>
       </c>
     </row>
@@ -2096,11 +2096,11 @@
         <v>36</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f>99*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
         <v>54.45</v>
       </c>
       <c r="E36" s="4">
@@ -2123,11 +2123,11 @@
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3163.0750000000003</v>
       </c>
     </row>
@@ -2140,11 +2140,11 @@
         <v>37</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ref="D37:D38" si="9">99*1.1/2</f>
+        <f t="shared" si="9"/>
         <v>54.45</v>
       </c>
       <c r="E37" s="4">
@@ -2167,11 +2167,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3145.8500000000004</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
@@ -2211,11 +2211,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3128.625</v>
       </c>
     </row>
@@ -2307,8 +2307,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D815FE95-7369-4A4D-9E4A-94C734E3D41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E9A74-C472-4F3B-8200-FB07D014B6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t xml:space="preserve">Курочкин </t>
   </si>
   <si>
-    <t>Тариф, руб./кв. м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -168,22 +162,28 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв. м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимальный срок просрочки </t>
-  </si>
-  <si>
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты, дни</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дни</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв. м.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв. м.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>48</v>
@@ -625,16 +625,16 @@
         <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <f>C3-0.5</f>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <f>C4-0.5</f>
@@ -773,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6:C38" si="7">C5-0.5</f>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="7"/>
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="7"/>
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="7"/>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="7"/>
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="7"/>
@@ -1037,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="7"/>
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="7"/>
@@ -1125,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="7"/>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="7"/>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="7"/>
@@ -1257,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="7"/>
@@ -1301,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="7"/>
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="7"/>
@@ -1389,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="7"/>
@@ -1433,7 +1433,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="7"/>
@@ -1477,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="7"/>
@@ -1521,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="7"/>
@@ -1565,7 +1565,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="7"/>
@@ -1609,7 +1609,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="7"/>
@@ -1653,7 +1653,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="7"/>
@@ -1697,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="7"/>
@@ -1741,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="7"/>
@@ -1785,7 +1785,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="7"/>
@@ -1829,7 +1829,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="7"/>
@@ -1873,7 +1873,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="7"/>
@@ -1917,7 +1917,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="7"/>
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="7"/>
@@ -2005,7 +2005,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="7"/>
@@ -2049,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="7"/>
@@ -2093,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="7"/>
@@ -2137,7 +2137,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="7"/>
@@ -2181,7 +2181,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="7"/>
@@ -2235,7 +2235,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2253,7 +2253,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2271,7 +2271,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2289,7 +2289,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E9A74-C472-4F3B-8200-FB07D014B6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5B03B-4D06-4082-AC86-0F42D3EDF330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Галеев</t>
   </si>
   <si>
-    <t>Ахмет</t>
-  </si>
-  <si>
     <t>Гилемов</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Орлов</t>
   </si>
   <si>
-    <t>Фатима</t>
-  </si>
-  <si>
     <t>Редькин</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>Средняя площадь, кв. м.</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Раин</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,31 +610,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>7568.55</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="1">DATE(2022,9,9)</f>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="5">
@@ -708,10 +708,11 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="4">
@@ -725,18 +726,18 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D34" si="4">$D$3</f>
+        <f t="shared" ref="D5:D34" si="3">$D$3</f>
         <v>108.9</v>
       </c>
       <c r="E5" s="4">
@@ -744,7 +745,7 @@
         <v>7514.1</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F5:F38" si="4">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
@@ -752,35 +753,36 @@
         <v>44807</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <f t="shared" ref="I5:I38" si="5">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J38" si="5">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="6">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K38" si="6">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="7">E5+J5</f>
         <v>7514.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C38" si="7">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="8">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E6" s="4">
@@ -788,7 +790,7 @@
         <v>7459.6500000000005</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
@@ -796,35 +798,36 @@
         <v>44808</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7459.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E7" s="4">
@@ -832,7 +835,7 @@
         <v>7405.2000000000007</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
@@ -840,35 +843,36 @@
         <v>44809</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7405.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E8" s="4">
@@ -876,7 +880,7 @@
         <v>7350.75</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
@@ -884,35 +888,36 @@
         <v>44810</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7350.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E9" s="4">
@@ -920,43 +925,44 @@
         <v>7296.3</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G38" si="8">G8+1</f>
+        <f t="shared" ref="G9:G38" si="9">G8+1</f>
         <v>44811</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7296.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E10" s="4">
@@ -964,43 +970,44 @@
         <v>7241.85</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7241.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E11" s="4">
@@ -1008,43 +1015,44 @@
         <v>7187.4000000000005</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7187.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E12" s="4">
@@ -1052,43 +1060,44 @@
         <v>7132.9500000000007</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7142.9500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E13" s="4">
@@ -1096,43 +1105,44 @@
         <v>7078.5</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7098.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E14" s="4">
@@ -1140,43 +1150,44 @@
         <v>7024.05</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7054.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E15" s="4">
@@ -1184,43 +1195,44 @@
         <v>6969.6</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7009.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E16" s="4">
@@ -1228,43 +1240,44 @@
         <v>6915.1500000000005</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6965.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E17" s="4">
@@ -1272,43 +1285,44 @@
         <v>6860.7000000000007</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6920.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E18" s="4">
@@ -1316,43 +1330,44 @@
         <v>6806.25</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6876.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E19" s="4">
@@ -1360,43 +1375,44 @@
         <v>6751.8</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6831.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E20" s="4">
@@ -1404,43 +1420,44 @@
         <v>6697.35</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6787.35</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E21" s="4">
@@ -1448,43 +1465,44 @@
         <v>6642.9000000000005</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6742.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E22" s="4">
@@ -1492,43 +1510,44 @@
         <v>6588.4500000000007</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6698.4500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E23" s="4">
@@ -1536,43 +1555,44 @@
         <v>6534</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6654</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E24" s="4">
@@ -1580,43 +1600,44 @@
         <v>6479.55</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6609.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E25" s="4">
@@ -1624,43 +1645,44 @@
         <v>6425.1</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6565.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E26" s="4">
@@ -1668,43 +1690,44 @@
         <v>6370.6500000000005</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6520.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E27" s="4">
@@ -1712,43 +1735,44 @@
         <v>6316.2000000000007</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6476.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E28" s="4">
@@ -1756,43 +1780,44 @@
         <v>6261.75</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6431.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E29" s="4">
@@ -1800,43 +1825,44 @@
         <v>6207.3</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6387.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E30" s="4">
@@ -1844,43 +1870,44 @@
         <v>6152.85</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6342.85</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E31" s="4">
@@ -1888,43 +1915,44 @@
         <v>6098.4000000000005</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6298.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E32" s="4">
@@ -1932,43 +1960,44 @@
         <v>6043.9500000000007</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6253.9500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E33" s="4">
@@ -1976,43 +2005,44 @@
         <v>5989.5</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6209.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108.9</v>
       </c>
       <c r="E34" s="4">
@@ -2020,39 +2050,40 @@
         <v>5935.05</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6165.05</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
@@ -2064,43 +2095,44 @@
         <v>2940.3</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3180.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>54.45</v>
       </c>
       <c r="E36" s="4">
@@ -2108,43 +2140,44 @@
         <v>2913.0750000000003</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3163.0750000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.45</v>
       </c>
       <c r="E37" s="4">
@@ -2152,43 +2185,44 @@
         <v>2885.8500000000004</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3145.8500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.45</v>
       </c>
       <c r="E38" s="4">
@@ -2196,26 +2230,27 @@
         <v>2858.625</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3128.625</v>
       </c>
     </row>
@@ -2235,7 +2270,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2253,7 +2288,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2271,7 +2306,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2289,7 +2324,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
@@ -2307,5 +2342,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5B03B-4D06-4082-AC86-0F42D3EDF330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08829269-9139-49DD-A985-F62A104B4759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -168,22 +168,22 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб./кв. м.</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Средняя площадь, кв. м.</t>
-  </si>
-  <si>
     <t>Арсланов</t>
   </si>
   <si>
     <t>Раин</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -251,14 +251,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -575,23 +575,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>99</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -603,26 +609,26 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>42</v>
@@ -638,1618 +644,1618 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>70</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <f>99*1.1</f>
         <v>108.9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <f>C3*D3</f>
         <v>7623</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <f>E3+J3</f>
         <v>7623</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <f>$D$3</f>
         <v>108.9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>7568.55</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="8">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7">
         <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <f>E4+J4</f>
         <v>7568.55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:D34" si="3">$D$3</f>
         <v>108.9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>7514.1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F38" si="4">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <f>G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <f t="shared" ref="I5:I38" si="5">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="7">
         <f t="shared" ref="J5:J38" si="6">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="7">
         <f t="shared" ref="K5:K38" si="7">E5+J5</f>
         <v>7514.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <f t="shared" ref="C6:C38" si="8">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>7459.6500000000005</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="8">
         <f>G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="7">
         <f t="shared" si="7"/>
         <v>7459.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>7405.2000000000007</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="8">
         <f>G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="7">
         <f t="shared" si="7"/>
         <v>7405.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>7350.75</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="8">
         <f>G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="7">
         <f t="shared" si="7"/>
         <v>7350.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>7296.3</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" ref="G9:G38" si="9">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="7">
         <f t="shared" si="7"/>
         <v>7296.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>7241.85</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="9"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <f t="shared" si="7"/>
         <v>7241.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>7187.4000000000005</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="9"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="9"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <f t="shared" si="7"/>
         <v>7187.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>7132.9500000000007</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="9"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="I12" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="7"/>
         <v>7142.9500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>7078.5</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="9"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="7">
         <f t="shared" si="7"/>
         <v>7098.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>7024.05</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="9"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="7">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="7">
         <f t="shared" si="7"/>
         <v>7054.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>6969.6</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="7">
         <f t="shared" si="7"/>
         <v>7009.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>6915.1500000000005</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="9"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="7">
         <f t="shared" si="7"/>
         <v>6965.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>6860.7000000000007</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="9"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="I17" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="7">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="7">
         <f t="shared" si="7"/>
         <v>6920.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>6806.25</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="9"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I18" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="7">
         <f t="shared" si="7"/>
         <v>6876.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>6751.8</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="9"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="I19" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="7">
         <f t="shared" si="7"/>
         <v>6831.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>6697.35</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="9"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="I20" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="7">
         <f t="shared" si="7"/>
         <v>6787.35</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>6642.9000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="9"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="7">
         <f t="shared" si="7"/>
         <v>6742.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7">
         <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>6588.4500000000007</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="9"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="7">
         <f t="shared" si="7"/>
         <v>6698.4500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>6534</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="9"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="7">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="7">
         <f t="shared" si="7"/>
         <v>6654</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>6479.55</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="9"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="7">
         <f t="shared" si="7"/>
         <v>6609.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>6425.1</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="9"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="I25" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="7">
         <f t="shared" si="7"/>
         <v>6565.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>6370.6500000000005</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="9"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="7">
         <f t="shared" si="7"/>
         <v>6520.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>6316.2000000000007</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="9"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="I27" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="7">
         <f t="shared" si="7"/>
         <v>6476.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="0"/>
         <v>6261.75</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="9"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="I28" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="6"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="7">
         <f t="shared" si="7"/>
         <v>6431.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="0"/>
         <v>6207.3</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="9"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="7">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="7">
         <f t="shared" si="7"/>
         <v>6387.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="0"/>
         <v>6152.85</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="9"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="7">
         <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="7">
         <f t="shared" si="7"/>
         <v>6342.85</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="0"/>
         <v>6098.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="9"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="I31" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="7">
         <f t="shared" si="7"/>
         <v>6298.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>6043.9500000000007</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="9"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="7">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="7">
         <f t="shared" si="7"/>
         <v>6253.9500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" si="0"/>
         <v>5989.5</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="9"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="I33" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="7">
         <f t="shared" si="7"/>
         <v>6209.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="3"/>
-        <v>108.9</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="7">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" si="0"/>
         <v>5935.05</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="9"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="7">
         <f t="shared" si="6"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="7">
         <f t="shared" si="7"/>
         <v>6165.05</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="7">
         <f>$D$3/2</f>
         <v>54.45</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>2940.3</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="8">
         <f t="shared" si="9"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="7">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="7">
         <f t="shared" si="7"/>
         <v>3180.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="7">
         <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="7">
         <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>54.45</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>2913.0750000000003</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="8">
         <f t="shared" si="9"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="I36" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="7">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="7">
         <f t="shared" si="7"/>
         <v>3163.0750000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="7">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="7">
         <f t="shared" si="10"/>
         <v>54.45</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="7">
         <f t="shared" si="0"/>
         <v>2885.8500000000004</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="8">
         <f t="shared" si="9"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I37" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="7">
         <f t="shared" si="6"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="7">
         <f t="shared" si="7"/>
         <v>3145.8500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="7">
         <f t="shared" si="10"/>
         <v>54.45</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>2858.625</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="8">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="8">
         <f t="shared" si="9"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="I38" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="7">
         <f t="shared" si="6"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="7">
         <f t="shared" si="7"/>
         <v>3128.625</v>
       </c>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="1">
@@ -2287,8 +2293,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="2" t="s">
-        <v>48</v>
+      <c r="B41" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2305,7 +2311,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1">
@@ -2323,7 +2329,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08829269-9139-49DD-A985-F62A104B4759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD55771-3ADC-4DAF-AB49-B8E363A467E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0D05B-6AB4-49AF-9719-3286C1DC6E88}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="7">
-        <f>99*1.1</f>
+        <f>A1*1.1</f>
         <v>108.9</v>
       </c>
       <c r="E3" s="7">
@@ -662,11 +662,9 @@
         <v>7623</v>
       </c>
       <c r="F3" s="8">
-        <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="8">
-        <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="7">
@@ -698,7 +696,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="7">
-        <f>$D$3</f>
+        <f>D3</f>
         <v>108.9</v>
       </c>
       <c r="E4" s="7">
@@ -743,7 +741,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:D34" si="3">$D$3</f>
+        <f t="shared" ref="D5:D34" si="3">D4</f>
         <v>108.9</v>
       </c>
       <c r="E5" s="7">
@@ -2093,7 +2091,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="7">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>54.45</v>
       </c>
       <c r="E35" s="7">
@@ -2138,7 +2136,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f>D3/2</f>
         <v>54.45</v>
       </c>
       <c r="E36" s="7">
@@ -2183,7 +2181,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>54.45</v>
       </c>
       <c r="E37" s="7">
@@ -2228,7 +2226,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>54.45</v>
       </c>
       <c r="E38" s="7">
@@ -2349,7 +2347,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4" formula="1"/>
+    <ignoredError sqref="E4:F4 E22:E34 E5:E21" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_99.xlsx
+++ b/LR3/table_1_99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD55771-3ADC-4DAF-AB49-B8E363A467E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3126FF-577F-43D6-9B4D-ECA804394324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9DE1193A-2044-47D1-9BBD-9B1F33BFB6DB}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
